--- a/Data/excel_test_data.xlsx
+++ b/Data/excel_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\010_work\Personal\School\Programming\C#_LapTrinhGiaoDien\QuanLySinhVien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\010_work\Personal\School\Programming\C#_LapTrinhGiaoDien\QuanLySinhVien\QuanLySinhVien\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Toán cao cấp</t>
   </si>
@@ -47,9 +47,6 @@
     <t>K01</t>
   </si>
   <si>
-    <t>K02</t>
-  </si>
-  <si>
     <t>HocPhan</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>SV01</t>
   </si>
   <si>
-    <t>HocPhanMonHoc</t>
-  </si>
-  <si>
     <t>SinhVien</t>
   </si>
   <si>
@@ -87,6 +81,72 @@
   </si>
   <si>
     <t>HP03</t>
+  </si>
+  <si>
+    <t>Hoá học Đại cương</t>
+  </si>
+  <si>
+    <t>Tin học Đại cương</t>
+  </si>
+  <si>
+    <t>loại học phần</t>
+  </si>
+  <si>
+    <t>học kỳ</t>
+  </si>
+  <si>
+    <t>mã khoa</t>
+  </si>
+  <si>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: học phần tự chọn</t>
+  </si>
+  <si>
+    <t>2: học phần tiên quyết</t>
+  </si>
+  <si>
+    <t>lọc theo khoa CNTT</t>
+  </si>
+  <si>
+    <t>lọc theo học phần tiên quyết của khoa công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>HP02</t>
+  </si>
+  <si>
+    <t>Giải tích 1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>lập trình hướng đối tượng</t>
+  </si>
+  <si>
+    <t>ra Học phần "Tin học đại cương" =&gt; tìm các môn liên quan trong HocPhanMonHoc</t>
+  </si>
+  <si>
+    <t>ra môn Lập trình giao diện</t>
+  </si>
+  <si>
+    <t>ra môn  Lập trình giao diện</t>
+  </si>
+  <si>
+    <t>ra môn lập trình hướng đối tượng</t>
+  </si>
+  <si>
+    <t>lọc theo học phần Tin học Đại cương [HP02]</t>
+  </si>
+  <si>
+    <t>lọc theo học phần Học kỳ 1</t>
+  </si>
+  <si>
+    <t>ra môn toán cao cấp</t>
+  </si>
+  <si>
+    <t>ra môn test</t>
   </si>
   <si>
     <r>
@@ -122,7 +182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> lập trình giao diện</t>
+      <t xml:space="preserve"> test</t>
     </r>
     <r>
       <rPr>
@@ -136,17 +196,14 @@
     </r>
   </si>
   <si>
-    <t>Học phần của học kỳ 1</t>
-  </si>
-  <si>
-    <t>Học phần của học kỳ 3</t>
+    <t>HocPhanDangKy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +219,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -179,16 +250,226 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,187 +750,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L15"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H12" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="F14:K14"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
